--- a/AllersProject/Docs/AnalisisEstadisticoTransaccionesAllers/TransactionFrequencyAnalysis.xlsx
+++ b/AllersProject/Docs/AnalisisEstadisticoTransaccionesAllers/TransactionFrequencyAnalysis.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arango\Documents\Visual Studio 2017\gitProyInte\ProyectoAllers\AllersProject\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arango\Documents\Visual Studio 2017\gitProyInte\ProyectoAllers\AllersProject\Docs\AnalisisEstadisticoTransaccionesAllers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082016CA-7A5A-4660-B6DF-899A91CD3050}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +108,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -128,7 +133,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -385,7 +390,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="485288456"/>
@@ -444,7 +449,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="485285504"/>
@@ -461,7 +466,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -487,7 +491,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -517,7 +521,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-419"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -543,7 +547,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -569,7 +572,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -800,7 +803,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="491366384"/>
@@ -859,7 +862,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="491374584"/>
@@ -900,7 +903,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-419"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2014,7 +2017,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2032,19 +2041,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2324,11 +2339,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
